--- a/COVID-19/Data/Allformattednumbers.xlsx
+++ b/COVID-19/Data/Allformattednumbers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGajula\NotBackedUp\Me\Learn\GitHub\COVID-19\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGajula\NotBackedUp\Me\Learn\GitHub\deepuHub\COVID-19\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="34">
   <si>
     <t>Srikakulam</t>
   </si>
@@ -318,9 +318,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -608,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H517"/>
+  <dimension ref="A1:H532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C513" sqref="C513"/>
+    <sheetView tabSelected="1" topLeftCell="A496" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A519" sqref="A519:F532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -8895,6 +8901,286 @@
         <v>231</v>
       </c>
       <c r="F517" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A519" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B519" s="5">
+        <v>0</v>
+      </c>
+      <c r="C519" s="5">
+        <v>53</v>
+      </c>
+      <c r="D519" s="5">
+        <v>35</v>
+      </c>
+      <c r="E519" s="5">
+        <v>14</v>
+      </c>
+      <c r="F519" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A520" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B520" s="5">
+        <v>0</v>
+      </c>
+      <c r="C520" s="5">
+        <v>73</v>
+      </c>
+      <c r="D520" s="5">
+        <v>57</v>
+      </c>
+      <c r="E520" s="5">
+        <v>16</v>
+      </c>
+      <c r="F520" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A521" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B521" s="5">
+        <v>0</v>
+      </c>
+      <c r="C521" s="5">
+        <v>39</v>
+      </c>
+      <c r="D521" s="5">
+        <v>27</v>
+      </c>
+      <c r="E521" s="5">
+        <v>12</v>
+      </c>
+      <c r="F521" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A522" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B522" s="5">
+        <v>23</v>
+      </c>
+      <c r="C522" s="5">
+        <v>237</v>
+      </c>
+      <c r="D522" s="5">
+        <v>200</v>
+      </c>
+      <c r="E522" s="5">
+        <v>29</v>
+      </c>
+      <c r="F522" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A523" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B523" s="5">
+        <v>0</v>
+      </c>
+      <c r="C523" s="5">
+        <v>58</v>
+      </c>
+      <c r="D523" s="5">
+        <v>30</v>
+      </c>
+      <c r="E523" s="5">
+        <v>28</v>
+      </c>
+      <c r="F523" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A524" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B524" s="5">
+        <v>33</v>
+      </c>
+      <c r="C524" s="5">
+        <v>210</v>
+      </c>
+      <c r="D524" s="5">
+        <v>173</v>
+      </c>
+      <c r="E524" s="5">
+        <v>29</v>
+      </c>
+      <c r="F524" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A525" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B525" s="5">
+        <v>13</v>
+      </c>
+      <c r="C525" s="5">
+        <v>292</v>
+      </c>
+      <c r="D525" s="5">
+        <v>252</v>
+      </c>
+      <c r="E525" s="5">
+        <v>31</v>
+      </c>
+      <c r="F525" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A526" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B526" s="5">
+        <v>7</v>
+      </c>
+      <c r="C526" s="5">
+        <v>79</v>
+      </c>
+      <c r="D526" s="5">
+        <v>54</v>
+      </c>
+      <c r="E526" s="5">
+        <v>23</v>
+      </c>
+      <c r="F526" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A527" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B527" s="5">
+        <v>0</v>
+      </c>
+      <c r="C527" s="5">
+        <v>56</v>
+      </c>
+      <c r="D527" s="5">
+        <v>33</v>
+      </c>
+      <c r="E527" s="5">
+        <v>23</v>
+      </c>
+      <c r="F527" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A528" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B528" s="5">
+        <v>1</v>
+      </c>
+      <c r="C528" s="5">
+        <v>4</v>
+      </c>
+      <c r="D528" s="5">
+        <v>4</v>
+      </c>
+      <c r="E528" s="5">
+        <v>0</v>
+      </c>
+      <c r="F528" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A529" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B529" s="5">
+        <v>0</v>
+      </c>
+      <c r="C529" s="5">
+        <v>22</v>
+      </c>
+      <c r="D529" s="5">
+        <v>3</v>
+      </c>
+      <c r="E529" s="5">
+        <v>19</v>
+      </c>
+      <c r="F529" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A530" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B530" s="5">
+        <v>0</v>
+      </c>
+      <c r="C530" s="5">
+        <v>0</v>
+      </c>
+      <c r="D530" s="5">
+        <v>0</v>
+      </c>
+      <c r="E530" s="5">
+        <v>0</v>
+      </c>
+      <c r="F530" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A531" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B531" s="5">
+        <v>3</v>
+      </c>
+      <c r="C531" s="5">
+        <v>54</v>
+      </c>
+      <c r="D531" s="5">
+        <v>43</v>
+      </c>
+      <c r="E531" s="5">
+        <v>11</v>
+      </c>
+      <c r="F531" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A532" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B532" s="5">
+        <v>80</v>
+      </c>
+      <c r="C532" s="5">
+        <v>1177</v>
+      </c>
+      <c r="D532" s="5">
+        <v>911</v>
+      </c>
+      <c r="E532" s="5">
+        <v>235</v>
+      </c>
+      <c r="F532" s="5">
         <v>31</v>
       </c>
     </row>

--- a/COVID-19/Data/Allformattednumbers.xlsx
+++ b/COVID-19/Data/Allformattednumbers.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="41">
   <si>
     <t>Srikakulam</t>
   </si>
@@ -257,6 +257,27 @@
       </rPr>
       <t>West Godavari</t>
     </r>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Last 24 hours</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Discharged</t>
+  </si>
+  <si>
+    <t>Deceased</t>
+  </si>
+  <si>
+    <t>East Godavari</t>
+  </si>
+  <si>
+    <t>West Godavari</t>
   </si>
 </sst>
 </file>
@@ -614,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H532"/>
+  <dimension ref="A1:H549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A496" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A519" sqref="A519:F532"/>
+    <sheetView tabSelected="1" topLeftCell="A514" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A534" sqref="A534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9181,6 +9202,311 @@
         <v>235</v>
       </c>
       <c r="F532" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A534" s="1">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A535" t="s">
+        <v>34</v>
+      </c>
+      <c r="B535" t="s">
+        <v>35</v>
+      </c>
+      <c r="C535" t="s">
+        <v>13</v>
+      </c>
+      <c r="D535" t="s">
+        <v>36</v>
+      </c>
+      <c r="E535" t="s">
+        <v>37</v>
+      </c>
+      <c r="F535" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A536" t="s">
+        <v>11</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+      <c r="C536">
+        <v>54</v>
+      </c>
+      <c r="D536">
+        <v>36</v>
+      </c>
+      <c r="E536">
+        <v>14</v>
+      </c>
+      <c r="F536">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A537" t="s">
+        <v>9</v>
+      </c>
+      <c r="B537">
+        <v>1</v>
+      </c>
+      <c r="C537">
+        <v>74</v>
+      </c>
+      <c r="D537">
+        <v>58</v>
+      </c>
+      <c r="E537">
+        <v>16</v>
+      </c>
+      <c r="F537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A538" t="s">
+        <v>39</v>
+      </c>
+      <c r="B538">
+        <v>0</v>
+      </c>
+      <c r="C538">
+        <v>39</v>
+      </c>
+      <c r="D538">
+        <v>27</v>
+      </c>
+      <c r="E538">
+        <v>12</v>
+      </c>
+      <c r="F538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A539" t="s">
+        <v>6</v>
+      </c>
+      <c r="B539">
+        <v>17</v>
+      </c>
+      <c r="C539">
+        <v>254</v>
+      </c>
+      <c r="D539">
+        <v>207</v>
+      </c>
+      <c r="E539">
+        <v>39</v>
+      </c>
+      <c r="F539">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A540" t="s">
+        <v>10</v>
+      </c>
+      <c r="B540">
+        <v>7</v>
+      </c>
+      <c r="C540">
+        <v>65</v>
+      </c>
+      <c r="D540">
+        <v>37</v>
+      </c>
+      <c r="E540">
+        <v>28</v>
+      </c>
+      <c r="F540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A541" t="s">
+        <v>5</v>
+      </c>
+      <c r="B541">
+        <v>13</v>
+      </c>
+      <c r="C541">
+        <v>223</v>
+      </c>
+      <c r="D541">
+        <v>186</v>
+      </c>
+      <c r="E541">
+        <v>29</v>
+      </c>
+      <c r="F541">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A542" t="s">
+        <v>12</v>
+      </c>
+      <c r="B542">
+        <v>40</v>
+      </c>
+      <c r="C542">
+        <v>332</v>
+      </c>
+      <c r="D542">
+        <v>280</v>
+      </c>
+      <c r="E542">
+        <v>43</v>
+      </c>
+      <c r="F542">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A543" t="s">
+        <v>8</v>
+      </c>
+      <c r="B543">
+        <v>3</v>
+      </c>
+      <c r="C543">
+        <v>82</v>
+      </c>
+      <c r="D543">
+        <v>56</v>
+      </c>
+      <c r="E543">
+        <v>24</v>
+      </c>
+      <c r="F543">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A544" t="s">
+        <v>7</v>
+      </c>
+      <c r="B544">
+        <v>0</v>
+      </c>
+      <c r="C544">
+        <v>56</v>
+      </c>
+      <c r="D544">
+        <v>33</v>
+      </c>
+      <c r="E544">
+        <v>23</v>
+      </c>
+      <c r="F544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A545" t="s">
+        <v>0</v>
+      </c>
+      <c r="B545">
+        <v>0</v>
+      </c>
+      <c r="C545">
+        <v>4</v>
+      </c>
+      <c r="D545">
+        <v>4</v>
+      </c>
+      <c r="E545">
+        <v>0</v>
+      </c>
+      <c r="F545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A546" t="s">
+        <v>2</v>
+      </c>
+      <c r="B546">
+        <v>0</v>
+      </c>
+      <c r="C546">
+        <v>22</v>
+      </c>
+      <c r="D546">
+        <v>3</v>
+      </c>
+      <c r="E546">
+        <v>19</v>
+      </c>
+      <c r="F546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A547" t="s">
+        <v>1</v>
+      </c>
+      <c r="B547">
+        <v>0</v>
+      </c>
+      <c r="C547">
+        <v>0</v>
+      </c>
+      <c r="D547">
+        <v>0</v>
+      </c>
+      <c r="E547">
+        <v>0</v>
+      </c>
+      <c r="F547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A548" t="s">
+        <v>40</v>
+      </c>
+      <c r="B548">
+        <v>0</v>
+      </c>
+      <c r="C548">
+        <v>54</v>
+      </c>
+      <c r="D548">
+        <v>43</v>
+      </c>
+      <c r="E548">
+        <v>11</v>
+      </c>
+      <c r="F548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A549" t="s">
+        <v>13</v>
+      </c>
+      <c r="B549">
+        <v>82</v>
+      </c>
+      <c r="C549">
+        <v>1259</v>
+      </c>
+      <c r="D549">
+        <v>970</v>
+      </c>
+      <c r="E549">
+        <v>258</v>
+      </c>
+      <c r="F549">
         <v>31</v>
       </c>
     </row>

--- a/COVID-19/Data/Allformattednumbers.xlsx
+++ b/COVID-19/Data/Allformattednumbers.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="41">
   <si>
     <t>Srikakulam</t>
   </si>
@@ -635,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H549"/>
+  <dimension ref="A1:H566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A534" sqref="A534"/>
+    <sheetView tabSelected="1" topLeftCell="A535" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D563" sqref="D563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9507,6 +9507,311 @@
         <v>258</v>
       </c>
       <c r="F549">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A551" s="1">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A552" t="s">
+        <v>34</v>
+      </c>
+      <c r="B552" t="s">
+        <v>35</v>
+      </c>
+      <c r="C552" t="s">
+        <v>13</v>
+      </c>
+      <c r="D552" t="s">
+        <v>36</v>
+      </c>
+      <c r="E552" t="s">
+        <v>37</v>
+      </c>
+      <c r="F552" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A553" t="s">
+        <v>11</v>
+      </c>
+      <c r="B553">
+        <v>4</v>
+      </c>
+      <c r="C553">
+        <v>58</v>
+      </c>
+      <c r="D553">
+        <v>37</v>
+      </c>
+      <c r="E553">
+        <v>17</v>
+      </c>
+      <c r="F553">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A554" t="s">
+        <v>9</v>
+      </c>
+      <c r="B554">
+        <v>3</v>
+      </c>
+      <c r="C554">
+        <v>77</v>
+      </c>
+      <c r="D554">
+        <v>61</v>
+      </c>
+      <c r="E554">
+        <v>16</v>
+      </c>
+      <c r="F554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A555" t="s">
+        <v>39</v>
+      </c>
+      <c r="B555">
+        <v>1</v>
+      </c>
+      <c r="C555">
+        <v>40</v>
+      </c>
+      <c r="D555">
+        <v>28</v>
+      </c>
+      <c r="E555">
+        <v>12</v>
+      </c>
+      <c r="F555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A556" t="s">
+        <v>6</v>
+      </c>
+      <c r="B556">
+        <v>29</v>
+      </c>
+      <c r="C556">
+        <v>283</v>
+      </c>
+      <c r="D556">
+        <v>216</v>
+      </c>
+      <c r="E556">
+        <v>59</v>
+      </c>
+      <c r="F556">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A557" t="s">
+        <v>10</v>
+      </c>
+      <c r="B557">
+        <v>4</v>
+      </c>
+      <c r="C557">
+        <v>69</v>
+      </c>
+      <c r="D557">
+        <v>41</v>
+      </c>
+      <c r="E557">
+        <v>28</v>
+      </c>
+      <c r="F557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A558" t="s">
+        <v>5</v>
+      </c>
+      <c r="B558">
+        <v>13</v>
+      </c>
+      <c r="C558">
+        <v>236</v>
+      </c>
+      <c r="D558">
+        <v>196</v>
+      </c>
+      <c r="E558">
+        <v>32</v>
+      </c>
+      <c r="F558">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A559" t="s">
+        <v>12</v>
+      </c>
+      <c r="B559">
+        <v>11</v>
+      </c>
+      <c r="C559">
+        <v>343</v>
+      </c>
+      <c r="D559">
+        <v>291</v>
+      </c>
+      <c r="E559">
+        <v>43</v>
+      </c>
+      <c r="F559">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A560" t="s">
+        <v>8</v>
+      </c>
+      <c r="B560">
+        <v>0</v>
+      </c>
+      <c r="C560">
+        <v>82</v>
+      </c>
+      <c r="D560">
+        <v>53</v>
+      </c>
+      <c r="E560">
+        <v>27</v>
+      </c>
+      <c r="F560">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A561" t="s">
+        <v>7</v>
+      </c>
+      <c r="B561">
+        <v>4</v>
+      </c>
+      <c r="C561">
+        <v>60</v>
+      </c>
+      <c r="D561">
+        <v>37</v>
+      </c>
+      <c r="E561">
+        <v>23</v>
+      </c>
+      <c r="F561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A562" t="s">
+        <v>0</v>
+      </c>
+      <c r="B562">
+        <v>1</v>
+      </c>
+      <c r="C562">
+        <v>5</v>
+      </c>
+      <c r="D562">
+        <v>5</v>
+      </c>
+      <c r="E562">
+        <v>0</v>
+      </c>
+      <c r="F562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A563" t="s">
+        <v>2</v>
+      </c>
+      <c r="B563">
+        <v>1</v>
+      </c>
+      <c r="C563">
+        <v>23</v>
+      </c>
+      <c r="D563">
+        <v>4</v>
+      </c>
+      <c r="E563">
+        <v>19</v>
+      </c>
+      <c r="F563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A564" t="s">
+        <v>1</v>
+      </c>
+      <c r="B564">
+        <v>0</v>
+      </c>
+      <c r="C564">
+        <v>0</v>
+      </c>
+      <c r="D564">
+        <v>0</v>
+      </c>
+      <c r="E564">
+        <v>0</v>
+      </c>
+      <c r="F564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A565" t="s">
+        <v>40</v>
+      </c>
+      <c r="B565">
+        <v>2</v>
+      </c>
+      <c r="C565">
+        <v>56</v>
+      </c>
+      <c r="D565">
+        <v>45</v>
+      </c>
+      <c r="E565">
+        <v>11</v>
+      </c>
+      <c r="F565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A566" t="s">
+        <v>13</v>
+      </c>
+      <c r="B566">
+        <v>73</v>
+      </c>
+      <c r="C566">
+        <v>1332</v>
+      </c>
+      <c r="D566">
+        <v>1014</v>
+      </c>
+      <c r="E566">
+        <v>287</v>
+      </c>
+      <c r="F566">
         <v>31</v>
       </c>
     </row>

--- a/COVID-19/Data/Allformattednumbers.xlsx
+++ b/COVID-19/Data/Allformattednumbers.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="41">
   <si>
     <t>Srikakulam</t>
   </si>
@@ -339,9 +339,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -635,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H566"/>
+  <dimension ref="A1:H583"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A535" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D563" sqref="D563"/>
+    <sheetView tabSelected="1" topLeftCell="A544" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H566" sqref="H566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9812,6 +9818,311 @@
         <v>287</v>
       </c>
       <c r="F566">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A568" s="1">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" ht="29.35" x14ac:dyDescent="0.5">
+      <c r="A569" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B569" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C569" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D569" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E569" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F569" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A570" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B570" s="7">
+        <v>3</v>
+      </c>
+      <c r="C570" s="7">
+        <v>61</v>
+      </c>
+      <c r="D570" s="7">
+        <v>37</v>
+      </c>
+      <c r="E570" s="7">
+        <v>20</v>
+      </c>
+      <c r="F570" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A571" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B571" s="7">
+        <v>3</v>
+      </c>
+      <c r="C571" s="7">
+        <v>80</v>
+      </c>
+      <c r="D571" s="7">
+        <v>64</v>
+      </c>
+      <c r="E571" s="7">
+        <v>16</v>
+      </c>
+      <c r="F571" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A572" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B572" s="7">
+        <v>2</v>
+      </c>
+      <c r="C572" s="7">
+        <v>42</v>
+      </c>
+      <c r="D572" s="7">
+        <v>28</v>
+      </c>
+      <c r="E572" s="7">
+        <v>14</v>
+      </c>
+      <c r="F572" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A573" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B573" s="7">
+        <v>4</v>
+      </c>
+      <c r="C573" s="7">
+        <v>287</v>
+      </c>
+      <c r="D573" s="7">
+        <v>192</v>
+      </c>
+      <c r="E573" s="7">
+        <v>87</v>
+      </c>
+      <c r="F573" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A574" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B574" s="7">
+        <v>4</v>
+      </c>
+      <c r="C574" s="7">
+        <v>73</v>
+      </c>
+      <c r="D574" s="7">
+        <v>45</v>
+      </c>
+      <c r="E574" s="7">
+        <v>28</v>
+      </c>
+      <c r="F574" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A575" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B575" s="7">
+        <v>10</v>
+      </c>
+      <c r="C575" s="7">
+        <v>246</v>
+      </c>
+      <c r="D575" s="7">
+        <v>206</v>
+      </c>
+      <c r="E575" s="7">
+        <v>32</v>
+      </c>
+      <c r="F575" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A576" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B576" s="7">
+        <v>43</v>
+      </c>
+      <c r="C576" s="7">
+        <v>386</v>
+      </c>
+      <c r="D576" s="7">
+        <v>334</v>
+      </c>
+      <c r="E576" s="7">
+        <v>43</v>
+      </c>
+      <c r="F576" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A577" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B577" s="7">
+        <v>2</v>
+      </c>
+      <c r="C577" s="7">
+        <v>84</v>
+      </c>
+      <c r="D577" s="7">
+        <v>55</v>
+      </c>
+      <c r="E577" s="7">
+        <v>27</v>
+      </c>
+      <c r="F577" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A578" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B578" s="7">
+        <v>0</v>
+      </c>
+      <c r="C578" s="7">
+        <v>60</v>
+      </c>
+      <c r="D578" s="7">
+        <v>37</v>
+      </c>
+      <c r="E578" s="7">
+        <v>23</v>
+      </c>
+      <c r="F578" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A579" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B579" s="7">
+        <v>0</v>
+      </c>
+      <c r="C579" s="7">
+        <v>5</v>
+      </c>
+      <c r="D579" s="7">
+        <v>5</v>
+      </c>
+      <c r="E579" s="7">
+        <v>0</v>
+      </c>
+      <c r="F579" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A580" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B580" s="7">
+        <v>0</v>
+      </c>
+      <c r="C580" s="7">
+        <v>23</v>
+      </c>
+      <c r="D580" s="7">
+        <v>3</v>
+      </c>
+      <c r="E580" s="7">
+        <v>20</v>
+      </c>
+      <c r="F580" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A581" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B581" s="7">
+        <v>0</v>
+      </c>
+      <c r="C581" s="7">
+        <v>0</v>
+      </c>
+      <c r="D581" s="7">
+        <v>0</v>
+      </c>
+      <c r="E581" s="7">
+        <v>0</v>
+      </c>
+      <c r="F581" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A582" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B582" s="7">
+        <v>0</v>
+      </c>
+      <c r="C582" s="7">
+        <v>56</v>
+      </c>
+      <c r="D582" s="7">
+        <v>45</v>
+      </c>
+      <c r="E582" s="7">
+        <v>11</v>
+      </c>
+      <c r="F582" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A583" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B583" s="7">
+        <v>71</v>
+      </c>
+      <c r="C583" s="7">
+        <v>1403</v>
+      </c>
+      <c r="D583" s="7">
+        <v>1051</v>
+      </c>
+      <c r="E583" s="7">
+        <v>321</v>
+      </c>
+      <c r="F583" s="7">
         <v>31</v>
       </c>
     </row>

--- a/COVID-19/Data/Allformattednumbers.xlsx
+++ b/COVID-19/Data/Allformattednumbers.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="41">
   <si>
     <t>Srikakulam</t>
   </si>
@@ -339,9 +339,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -641,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H583"/>
+  <dimension ref="A1:H600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A544" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H566" sqref="H566"/>
+    <sheetView tabSelected="1" topLeftCell="A574" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A586" sqref="A586:F600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -10124,6 +10130,311 @@
       </c>
       <c r="F583" s="7">
         <v>31</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A585" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" ht="29.35" x14ac:dyDescent="0.5">
+      <c r="A586" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B586" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C586" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D586" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E586" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F586" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A587" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B587" s="9">
+        <v>6</v>
+      </c>
+      <c r="C587" s="9">
+        <v>67</v>
+      </c>
+      <c r="D587" s="9">
+        <v>41</v>
+      </c>
+      <c r="E587" s="9">
+        <v>22</v>
+      </c>
+      <c r="F587" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A588" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B588" s="9">
+        <v>0</v>
+      </c>
+      <c r="C588" s="9">
+        <v>80</v>
+      </c>
+      <c r="D588" s="9">
+        <v>58</v>
+      </c>
+      <c r="E588" s="9">
+        <v>22</v>
+      </c>
+      <c r="F588" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A589" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B589" s="9">
+        <v>0</v>
+      </c>
+      <c r="C589" s="9">
+        <v>42</v>
+      </c>
+      <c r="D589" s="9">
+        <v>25</v>
+      </c>
+      <c r="E589" s="9">
+        <v>17</v>
+      </c>
+      <c r="F589" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A590" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B590" s="9">
+        <v>19</v>
+      </c>
+      <c r="C590" s="9">
+        <v>306</v>
+      </c>
+      <c r="D590" s="9">
+        <v>201</v>
+      </c>
+      <c r="E590" s="9">
+        <v>97</v>
+      </c>
+      <c r="F590" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A591" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B591" s="9">
+        <v>6</v>
+      </c>
+      <c r="C591" s="9">
+        <v>79</v>
+      </c>
+      <c r="D591" s="9">
+        <v>42</v>
+      </c>
+      <c r="E591" s="9">
+        <v>37</v>
+      </c>
+      <c r="F591" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A592" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B592" s="9">
+        <v>0</v>
+      </c>
+      <c r="C592" s="9">
+        <v>246</v>
+      </c>
+      <c r="D592" s="9">
+        <v>201</v>
+      </c>
+      <c r="E592" s="9">
+        <v>37</v>
+      </c>
+      <c r="F592" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A593" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B593" s="9">
+        <v>25</v>
+      </c>
+      <c r="C593" s="9">
+        <v>411</v>
+      </c>
+      <c r="D593" s="9">
+        <v>335</v>
+      </c>
+      <c r="E593" s="9">
+        <v>66</v>
+      </c>
+      <c r="F593" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A594" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B594" s="9">
+        <v>0</v>
+      </c>
+      <c r="C594" s="9">
+        <v>84</v>
+      </c>
+      <c r="D594" s="9">
+        <v>38</v>
+      </c>
+      <c r="E594" s="9">
+        <v>43</v>
+      </c>
+      <c r="F594" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A595" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B595" s="9">
+        <v>0</v>
+      </c>
+      <c r="C595" s="9">
+        <v>60</v>
+      </c>
+      <c r="D595" s="9">
+        <v>37</v>
+      </c>
+      <c r="E595" s="9">
+        <v>23</v>
+      </c>
+      <c r="F595" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A596" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B596" s="9">
+        <v>0</v>
+      </c>
+      <c r="C596" s="9">
+        <v>5</v>
+      </c>
+      <c r="D596" s="9">
+        <v>5</v>
+      </c>
+      <c r="E596" s="9">
+        <v>0</v>
+      </c>
+      <c r="F596" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A597" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B597" s="9">
+        <v>2</v>
+      </c>
+      <c r="C597" s="9">
+        <v>25</v>
+      </c>
+      <c r="D597" s="9">
+        <v>5</v>
+      </c>
+      <c r="E597" s="9">
+        <v>20</v>
+      </c>
+      <c r="F597" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A598" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B598" s="9">
+        <v>0</v>
+      </c>
+      <c r="C598" s="9">
+        <v>0</v>
+      </c>
+      <c r="D598" s="9">
+        <v>0</v>
+      </c>
+      <c r="E598" s="9">
+        <v>0</v>
+      </c>
+      <c r="F598" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A599" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B599" s="9">
+        <v>2</v>
+      </c>
+      <c r="C599" s="9">
+        <v>58</v>
+      </c>
+      <c r="D599" s="9">
+        <v>39</v>
+      </c>
+      <c r="E599" s="9">
+        <v>19</v>
+      </c>
+      <c r="F599" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A600" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B600" s="9">
+        <v>60</v>
+      </c>
+      <c r="C600" s="9">
+        <v>1463</v>
+      </c>
+      <c r="D600" s="9">
+        <v>1027</v>
+      </c>
+      <c r="E600" s="9">
+        <v>403</v>
+      </c>
+      <c r="F600" s="9">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
